--- a/ResultadoEleicoesDistritos/BRAGA_BRAGA.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_BRAGA.xlsx
@@ -597,64 +597,64 @@
         <v>50252</v>
       </c>
       <c r="H2" t="n">
-        <v>1791</v>
+        <v>1935</v>
       </c>
       <c r="I2" t="n">
-        <v>4998</v>
+        <v>4948</v>
       </c>
       <c r="J2" t="n">
-        <v>20860</v>
+        <v>20682</v>
       </c>
       <c r="K2" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L2" t="n">
-        <v>5692</v>
+        <v>5782</v>
       </c>
       <c r="M2" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="N2" t="n">
+        <v>3595</v>
+      </c>
+      <c r="O2" t="n">
+        <v>13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>29</v>
+      </c>
+      <c r="R2" t="n">
+        <v>292</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2264</v>
+      </c>
+      <c r="T2" t="n">
         <v>3625</v>
       </c>
-      <c r="O2" t="n">
-        <v>9</v>
-      </c>
-      <c r="P2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>34</v>
-      </c>
-      <c r="R2" t="n">
-        <v>302</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2168</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3679</v>
-      </c>
       <c r="U2" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V2" t="n">
-        <v>32115</v>
+        <v>32004</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>32022</v>
+        <v>32167</v>
       </c>
       <c r="Y2" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="n">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="AA2" t="n">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
